--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Desktop\Games\ResetPolicySolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140CE310-BCF1-4F32-8D47-A6C139FD1421}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A1D8BB-ECC6-4DD8-BE57-73EFA91C3F1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -231,7 +231,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,16 +437,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -617,104 +607,84 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -775,34 +745,32 @@
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="38" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="38" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="40" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="40" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="37" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="37" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1163,283 +1131,283 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="8">
         <v>60</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="8">
         <v>30</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="8">
         <v>30</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" s="16" customFormat="1">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="15" thickBot="1">
+      <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="19">
         <v>4.7104629629629597E-3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="19">
         <v>9.8920486111111101E-3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="19">
         <v>9.3067592592592594E-3</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="6">
+      <c r="B8" s="19">
         <v>4.6339930555555596E-3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="19">
         <v>9.6554166666666698E-3</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" customFormat="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="19">
         <v>4.5844791666666699E-3</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="19">
         <v>9.8701504629629608E-3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="19">
         <v>9.1074421296296303E-3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="19">
         <v>1.90344907407407E-3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="19">
         <v>8.7199652777777796E-3</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="19">
         <v>2.8036805555555601E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="6">
+      <c r="B10" s="19">
         <v>4.6230439814814797E-3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="19">
         <v>9.4733680555555509E-3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="19">
         <v>8.81891203703704E-3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="19">
         <v>1.884375E-3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="19">
         <v>8.2755324074074103E-3</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="19">
         <v>3.0212500000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="5">
+      <c r="B11" s="19">
         <v>4.5665046296296304E-3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="19">
         <v>9.6039004629629599E-3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="19">
         <v>9.2170717592592599E-3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="19">
         <v>1.97987268518519E-3</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="6">
+      <c r="B12" s="19">
         <v>4.6082291666666702E-3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="19">
         <v>9.8177083333333293E-3</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="6">
+      <c r="B13" s="19">
         <v>4.6041782407407403E-3</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="19">
         <v>9.6883796296296301E-3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="19">
         <v>8.8460763888888894E-3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="19">
         <v>1.95337962962963E-3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="19">
         <v>8.6558449074074107E-3</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="19">
         <v>2.3468287037036999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="6">
+      <c r="B14" s="19">
         <v>4.5273726851851803E-3</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="19">
         <v>9.5500578703703702E-3</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="19">
         <v>9.1511342592592599E-3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="19">
         <v>1.9536689814814798E-3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="19">
         <v>8.8912731481481499E-3</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="19">
         <v>2.3492592592592601E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="5">
+      <c r="B15" s="19">
         <v>4.5846643518518502E-3</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="19">
         <v>9.6015162037037007E-3</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="6">
+      <c r="B16" s="19">
         <v>4.5810416666666699E-3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="19">
         <v>9.5557986111111104E-3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="19">
         <v>9.0451273148148097E-3</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="19">
         <v>1.90228009259259E-3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="19">
         <v>8.4897685185185198E-3</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="19">
         <v>2.4577893518518499E-3</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="5">
+      <c r="B17" s="19">
         <v>4.58034722222222E-3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="19">
         <v>9.8904976851851793E-3</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18"/>
@@ -1571,5 +1539,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>